--- a/cuffs/main/database compression/database_format.xlsx
+++ b/cuffs/main/database compression/database_format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcmvd\Documents\Python\cupy\database compression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcmvd\Documents\GitHub\CyPyRADIS\cuffs\main\database compression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B020EAA2-D1EE-4F2C-B27A-CDC613932877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EABB47-FFE6-457A-AD78-C36F17B67020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B07933A-A879-4011-98C1-31E8F77C26D3}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>parameter</t>
   </si>
@@ -361,13 +360,22 @@
   </si>
   <si>
     <t>yes(na/ns)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>MB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +404,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +429,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -424,18 +444,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,27 +773,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8243F116-270D-4892-9271-CA3D330B7B09}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="5" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="13" width="5.85546875" customWidth="1"/>
-    <col min="14" max="14" width="33.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="12" max="15" width="5.85546875" customWidth="1"/>
+    <col min="16" max="16" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -781,91 +805,109 @@
         <v>76</v>
       </c>
       <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>99</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>D2+C2</f>
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>99</v>
       </c>
-      <c r="J2" s="2">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <f>J2*K2</f>
-        <v>7</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>L2*M2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <f>J3*K3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>D2+C2</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E35" si="0">D3+C3</f>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>L3*M3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -875,72 +917,88 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4">
+        <f t="shared" ref="D4:D35" si="1">D3+C3</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>9</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3">
         <v>4</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <f t="shared" ref="L4:L35" si="0">J4*K4</f>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N35" si="2">L4*M4</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J5">
+      <c r="L5" s="4">
+        <v>32</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -950,60 +1008,76 @@
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J7">
+      <c r="L7" s="4">
         <v>32</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1013,60 +1087,76 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J9">
-        <v>16</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="L9" s="4">
+        <v>32</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1076,24 +1166,32 @@
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1103,90 +1201,114 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J12">
-        <v>16</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="L12" s="4">
+        <v>32</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J13">
-        <v>16</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="4">
+        <v>32</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1196,43 +1318,51 @@
       <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
         <v>999</v>
       </c>
-      <c r="J14" s="2">
+      <c r="L14" s="2">
         <v>10</v>
       </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="0"/>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="2">
-        <f>J14+J15+J16+J17+J18</f>
+      <c r="S14" s="2">
+        <f>L14+L15+L16+L17+L18</f>
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1242,40 +1372,48 @@
       <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
         <v>99</v>
       </c>
-      <c r="J15" s="2">
-        <v>7</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
       <c r="L15" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q15" s="2">
-        <f>J20+J21+J22+J23+J24</f>
+        <v>7</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S15" s="2">
+        <f>L20+L21+L22+L23+L24</f>
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1285,37 +1423,45 @@
       <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
         <v>99</v>
       </c>
-      <c r="J16" s="2">
-        <v>7</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
       <c r="L16" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q16" s="2">
-        <f>J2+J4+J33+J34+J3</f>
+        <v>7</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S16" s="2">
+        <f>L2+L4+L33+L34+L3</f>
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1325,48 +1471,64 @@
       <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
         <v>99</v>
       </c>
-      <c r="J17" s="2">
-        <v>7</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
       <c r="L17" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>81</v>
       </c>
       <c r="L18" s="2">
-        <f>J18*K18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <f>L18*M18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1376,31 +1538,39 @@
       <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <v>99</v>
       </c>
-      <c r="J19" s="1">
-        <v>7</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>7</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -1410,36 +1580,44 @@
       <c r="C20" s="2">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
         <v>999</v>
       </c>
-      <c r="J20" s="2">
+      <c r="L20" s="2">
         <v>10</v>
       </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="0"/>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1449,36 +1627,44 @@
       <c r="C21" s="2">
         <v>2</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
         <v>99</v>
       </c>
-      <c r="J21" s="2">
-        <v>7</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
       <c r="L21" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -1488,33 +1674,41 @@
       <c r="C22" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
         <v>99</v>
       </c>
-      <c r="J22" s="2">
-        <v>7</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
       <c r="L22" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -1524,48 +1718,64 @@
       <c r="C23" s="2">
         <v>2</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
         <v>99</v>
       </c>
-      <c r="J23" s="2">
-        <v>7</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
       <c r="L23" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1</v>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
       <c r="L24" s="2">
-        <f>J24*K24</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2">
+        <f>L24*M24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1575,31 +1785,49 @@
       <c r="C25" s="1">
         <v>2</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
         <v>99</v>
       </c>
-      <c r="J25" s="1">
-        <v>7</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25"/>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>7</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -1609,24 +1837,32 @@
       <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="1" t="s">
+      <c r="H27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -1636,24 +1872,32 @@
       <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -1663,24 +1907,32 @@
       <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="1" t="s">
+      <c r="H29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -1690,24 +1942,32 @@
       <c r="C30" s="1">
         <v>3</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -1717,21 +1977,29 @@
       <c r="C31" s="1">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -1741,21 +2009,29 @@
       <c r="C32" s="1">
         <v>4</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -1765,30 +2041,38 @@
       <c r="C33" s="3">
         <v>3</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2</v>
       </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="3">
-        <f t="shared" si="0"/>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -1798,30 +2082,38 @@
       <c r="C34" s="3">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="H34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="3">
         <v>999</v>
       </c>
-      <c r="J34" s="3">
+      <c r="L34" s="3">
         <v>10</v>
       </c>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" si="0"/>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
@@ -1831,40 +2123,48 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="F35" t="s">
         <v>73</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>74</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>69</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C37">
         <f>SUM(C2:C35)</f>
         <v>122</v>
       </c>
-      <c r="K37">
-        <f>SUM(L2:L36)</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K38">
-        <f>K37/8</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f>SUM(N2:N36)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f>M37/8</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1874,15 +2174,15 @@
       <c r="C40">
         <v>4</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <f>C40*8</f>
         <v>32</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1892,14 +2192,14 @@
       <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>32</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1909,27 +2209,27 @@
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="D42">
-        <f t="shared" ref="D42:D46" si="1">C42*8</f>
+      <c r="F42">
+        <f t="shared" ref="F42:F46" si="3">C42*8</f>
         <v>32</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>95</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="1"/>
+      <c r="F43">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1939,12 +2239,12 @@
       <c r="C44">
         <v>4</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="1"/>
+      <c r="F44">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -1954,31 +2254,65 @@
       <c r="C45">
         <v>4</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
+      <c r="F45">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>98</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
+      <c r="F46">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>SUM(C40:C46)</f>
         <v>28</v>
       </c>
-      <c r="D48">
-        <f>SUM(D40:D46)</f>
+      <c r="F48">
+        <f>SUM(F40:F46)</f>
         <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>240</v>
+      </c>
+      <c r="C50">
+        <f>C48*B50</f>
+        <v>6720</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>10000</v>
+      </c>
+      <c r="C51">
+        <f>B51*C48</f>
+        <v>280000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51">
+        <f>10^11</f>
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f>2^11</f>
+        <v>2048</v>
       </c>
     </row>
   </sheetData>
